--- a/sjf_rules_summary_template.xlsx
+++ b/sjf_rules_summary_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A8143B-7E36-4407-B545-4E4DF37728C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06759A80-00C3-4B61-A4CC-1A622E427D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="525">
   <si>
     <t>Rule</t>
   </si>
@@ -2051,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GL111"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B81" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO,BEGIN_DATE</v>
+        <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO,FAULTING_VALUE_TEXT,F_SYSTEM,NHS,BEGIN_DATE</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>384</v>
@@ -3609,6 +3609,15 @@
         <v>278</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4636,7 +4645,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sjf_rules_summary_template.xlsx
+++ b/sjf_rules_summary_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06759A80-00C3-4B61-A4CC-1A622E427D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A13A7FA-62F6-4220-9B61-A5F2994041D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="419">
   <si>
     <t>Rule</t>
   </si>
@@ -1261,324 +1261,6 @@
   </si>
   <si>
     <t>EMP</t>
-  </si>
-  <si>
-    <t>SJF01</t>
-  </si>
-  <si>
-    <t>SJF02</t>
-  </si>
-  <si>
-    <t>SJF03</t>
-  </si>
-  <si>
-    <t>SJF04</t>
-  </si>
-  <si>
-    <t>SJF05</t>
-  </si>
-  <si>
-    <t>SJF06</t>
-  </si>
-  <si>
-    <t>SJF07</t>
-  </si>
-  <si>
-    <t>SJF08</t>
-  </si>
-  <si>
-    <t>SJF09</t>
-  </si>
-  <si>
-    <t>SJF10</t>
-  </si>
-  <si>
-    <t>SJF11</t>
-  </si>
-  <si>
-    <t>SJF12</t>
-  </si>
-  <si>
-    <t>SJF13</t>
-  </si>
-  <si>
-    <t>SJF14</t>
-  </si>
-  <si>
-    <t>SJF15</t>
-  </si>
-  <si>
-    <t>SJF16</t>
-  </si>
-  <si>
-    <t>SJF17</t>
-  </si>
-  <si>
-    <t>SJF18</t>
-  </si>
-  <si>
-    <t>SJF19</t>
-  </si>
-  <si>
-    <t>SJF20</t>
-  </si>
-  <si>
-    <t>SJF21</t>
-  </si>
-  <si>
-    <t>SJF22</t>
-  </si>
-  <si>
-    <t>SJF23</t>
-  </si>
-  <si>
-    <t>SJF24</t>
-  </si>
-  <si>
-    <t>SJF25</t>
-  </si>
-  <si>
-    <t>SJF26</t>
-  </si>
-  <si>
-    <t>SJF27</t>
-  </si>
-  <si>
-    <t>SJF28</t>
-  </si>
-  <si>
-    <t>SJF29</t>
-  </si>
-  <si>
-    <t>SJF30</t>
-  </si>
-  <si>
-    <t>SJF31</t>
-  </si>
-  <si>
-    <t>SJF32</t>
-  </si>
-  <si>
-    <t>SJF33</t>
-  </si>
-  <si>
-    <t>SJF34</t>
-  </si>
-  <si>
-    <t>SJF35</t>
-  </si>
-  <si>
-    <t>SJF36</t>
-  </si>
-  <si>
-    <t>SJF37</t>
-  </si>
-  <si>
-    <t>SJF38</t>
-  </si>
-  <si>
-    <t>SJF39</t>
-  </si>
-  <si>
-    <t>SJF40</t>
-  </si>
-  <si>
-    <t>SJF41</t>
-  </si>
-  <si>
-    <t>SJF42</t>
-  </si>
-  <si>
-    <t>SJF43</t>
-  </si>
-  <si>
-    <t>SJF44</t>
-  </si>
-  <si>
-    <t>SJF45</t>
-  </si>
-  <si>
-    <t>SJF46</t>
-  </si>
-  <si>
-    <t>SJF47</t>
-  </si>
-  <si>
-    <t>SJF48</t>
-  </si>
-  <si>
-    <t>SJF49</t>
-  </si>
-  <si>
-    <t>SJF50</t>
-  </si>
-  <si>
-    <t>SJF51</t>
-  </si>
-  <si>
-    <t>SJF52</t>
-  </si>
-  <si>
-    <t>SJF53</t>
-  </si>
-  <si>
-    <t>SJF54</t>
-  </si>
-  <si>
-    <t>SJF55</t>
-  </si>
-  <si>
-    <t>SJF56</t>
-  </si>
-  <si>
-    <t>SJF57</t>
-  </si>
-  <si>
-    <t>SJF58</t>
-  </si>
-  <si>
-    <t>SJF59</t>
-  </si>
-  <si>
-    <t>SJF60</t>
-  </si>
-  <si>
-    <t>SJF61</t>
-  </si>
-  <si>
-    <t>SJF62</t>
-  </si>
-  <si>
-    <t>SJF63</t>
-  </si>
-  <si>
-    <t>SJF64</t>
-  </si>
-  <si>
-    <t>SJF65</t>
-  </si>
-  <si>
-    <t>SJF66</t>
-  </si>
-  <si>
-    <t>SJF67</t>
-  </si>
-  <si>
-    <t>SJF68</t>
-  </si>
-  <si>
-    <t>SJF69</t>
-  </si>
-  <si>
-    <t>SJF70</t>
-  </si>
-  <si>
-    <t>SJF71</t>
-  </si>
-  <si>
-    <t>SJF72</t>
-  </si>
-  <si>
-    <t>SJF73</t>
-  </si>
-  <si>
-    <t>SJF74</t>
-  </si>
-  <si>
-    <t>SJF75</t>
-  </si>
-  <si>
-    <t>SJF76</t>
-  </si>
-  <si>
-    <t>SJF77</t>
-  </si>
-  <si>
-    <t>SJF78</t>
-  </si>
-  <si>
-    <t>SJF79</t>
-  </si>
-  <si>
-    <t>SJF80</t>
-  </si>
-  <si>
-    <t>SJF81</t>
-  </si>
-  <si>
-    <t>SJF82a</t>
-  </si>
-  <si>
-    <t>SJF82b</t>
-  </si>
-  <si>
-    <t>SJF82c</t>
-  </si>
-  <si>
-    <t>SJF82d</t>
-  </si>
-  <si>
-    <t>SJF83a</t>
-  </si>
-  <si>
-    <t>SJF83b</t>
-  </si>
-  <si>
-    <t>SJF83c</t>
-  </si>
-  <si>
-    <t>SJF83d</t>
-  </si>
-  <si>
-    <t>SJF84</t>
-  </si>
-  <si>
-    <t>SJF85</t>
-  </si>
-  <si>
-    <t>SJF86</t>
-  </si>
-  <si>
-    <t>SJF87</t>
-  </si>
-  <si>
-    <t>SJF88</t>
-  </si>
-  <si>
-    <t>SJF89</t>
-  </si>
-  <si>
-    <t>SJF90</t>
-  </si>
-  <si>
-    <t>SJF91</t>
-  </si>
-  <si>
-    <t>SJF92</t>
-  </si>
-  <si>
-    <t>SJF93</t>
-  </si>
-  <si>
-    <t>SJF94</t>
-  </si>
-  <si>
-    <t>SJF95</t>
-  </si>
-  <si>
-    <t>SJF96</t>
-  </si>
-  <si>
-    <t>SJF97</t>
-  </si>
-  <si>
-    <t>SJF98</t>
-  </si>
-  <si>
-    <t>SJF99</t>
-  </si>
-  <si>
-    <t>SJF100</t>
   </si>
   <si>
     <t>FWHA Num Failed</t>
@@ -2051,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GL111"/>
   <sheetViews>
-    <sheetView topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,19 +2502,19 @@
         <v>148</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>516</v>
+        <v>410</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>517</v>
+        <v>411</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>295</v>
@@ -2856,19 +2538,19 @@
         <v>277</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>516</v>
+        <v>410</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>517</v>
+        <v>411</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>295</v>
@@ -2925,19 +2607,19 @@
         <v>148</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>520</v>
+        <v>414</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>521</v>
+        <v>415</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>523</v>
+        <v>417</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>292</v>
@@ -2955,19 +2637,19 @@
         <v>278</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>520</v>
+        <v>414</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>521</v>
+        <v>415</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>523</v>
+        <v>417</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>292</v>
@@ -3189,7 +2871,7 @@
         <v>398</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3555,7 +3237,7 @@
         <v>278</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>3</v>
@@ -3582,7 +3264,7 @@
         <v>278</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>3</v>
@@ -3618,7 +3300,7 @@
         <v>186</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,7 +3318,7 @@
         <v>278</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>3</v>
@@ -3666,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3687,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3708,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3729,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,7 +3591,7 @@
         <v>390</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:194" x14ac:dyDescent="0.25">
@@ -4594,37 +4276,37 @@
         <v>406</v>
       </c>
       <c r="GB111" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
       <c r="GC111" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
       <c r="GD111" t="s">
-        <v>516</v>
+        <v>410</v>
       </c>
       <c r="GE111" t="s">
-        <v>517</v>
+        <v>411</v>
       </c>
       <c r="GF111" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="GG111" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
       <c r="GH111" t="s">
-        <v>520</v>
+        <v>414</v>
       </c>
       <c r="GI111" t="s">
-        <v>521</v>
+        <v>415</v>
       </c>
       <c r="GJ111" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="GK111" t="s">
-        <v>523</v>
+        <v>417</v>
       </c>
       <c r="GL111" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4642,15 +4324,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.140625" style="1" customWidth="1"/>
@@ -4661,7 +4343,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4683,16 +4365,16 @@
         <v>275</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>513</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>407</v>
+      <c r="A2" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A2&amp;"!A1")),HYPERLINK("#"&amp;A2&amp;"!A1",LEFT(A2)&amp;"-"&amp;MID(A2,2,1)&amp;"-"&amp;RIGHT(A2,2)),HYPERLINK(,LEFT(A2)&amp;"-"&amp;MID(A2,2,1)&amp;"-"&amp;RIGHT(A2,2)))</f>
-        <v>S-J-01</v>
+        <f ca="1">IF(ISREF(INDIRECT(SUBSTITUTE(A2,"-","")&amp;"!A1")),HYPERLINK("#"&amp;SUBSTITUTE(A2,"-","")&amp;"!A1",A2),HYPERLINK(,A2))</f>
+        <v>SJ-F-01</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -4702,12 +4384,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>408</v>
+      <c r="A3" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f t="shared" ref="B3:B66" ca="1" si="0">IF(ISREF(INDIRECT(A3&amp;"!A1")),HYPERLINK("#"&amp;A3&amp;"!A1",LEFT(A3)&amp;"-"&amp;MID(A3,2,1)&amp;"-"&amp;RIGHT(A3,2)),HYPERLINK(,LEFT(A3)&amp;"-"&amp;MID(A3,2,1)&amp;"-"&amp;RIGHT(A3,2)))</f>
-        <v>S-J-02</v>
+        <f t="shared" ref="B3:B66" ca="1" si="0">IF(ISREF(INDIRECT(SUBSTITUTE(A3,"-","")&amp;"!A1")),HYPERLINK("#"&amp;SUBSTITUTE(A3,"-","")&amp;"!A1",A3),HYPERLINK(,A3))</f>
+        <v>SJ-F-02</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -4718,12 +4400,12 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>409</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-03</v>
+        <v>SJ-F-03</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -4733,12 +4415,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>410</v>
+      <c r="A5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-04</v>
+        <v>SJ-F-04</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -4748,12 +4430,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>411</v>
+      <c r="A6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-05</v>
+        <v>SJ-F-05</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -4763,12 +4445,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>412</v>
+      <c r="A7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-06</v>
+        <v>SJ-F-06</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -4778,12 +4460,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>413</v>
+      <c r="A8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-07</v>
+        <v>SJ-F-07</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
@@ -4793,12 +4475,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>414</v>
+      <c r="A9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-08</v>
+        <v>SJ-F-08</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -4808,12 +4490,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>415</v>
+      <c r="A10" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-09</v>
+        <v>SJ-F-09</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
@@ -4823,12 +4505,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>416</v>
+      <c r="A11" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-10</v>
+        <v>SJ-F-10</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>30</v>
@@ -4838,12 +4520,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>417</v>
+      <c r="A12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-11</v>
+        <v>SJ-F-11</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>33</v>
@@ -4853,12 +4535,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>418</v>
+      <c r="A13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-12</v>
+        <v>SJ-F-12</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>36</v>
@@ -4868,12 +4550,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>419</v>
+      <c r="A14" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-13</v>
+        <v>SJ-F-13</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
@@ -4883,12 +4565,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>420</v>
+      <c r="A15" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-14</v>
+        <v>SJ-F-14</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>42</v>
@@ -4898,12 +4580,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>421</v>
+      <c r="A16" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-15</v>
+        <v>SJ-F-15</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
@@ -4913,12 +4595,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>422</v>
+      <c r="A17" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-16</v>
+        <v>SJ-F-16</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>47</v>
@@ -4928,12 +4610,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>423</v>
+      <c r="A18" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-17</v>
+        <v>SJ-F-17</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>50</v>
@@ -4943,12 +4625,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>424</v>
+      <c r="A19" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-18</v>
+        <v>SJ-F-18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>53</v>
@@ -4958,12 +4640,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>425</v>
+      <c r="A20" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-19</v>
+        <v>SJ-F-19</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>56</v>
@@ -4973,12 +4655,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>426</v>
+      <c r="A21" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-20</v>
+        <v>SJ-F-20</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>59</v>
@@ -4988,12 +4670,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>427</v>
+      <c r="A22" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-21</v>
+        <v>SJ-F-21</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>62</v>
@@ -5003,12 +4685,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>428</v>
+      <c r="A23" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-22</v>
+        <v>SJ-F-22</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>65</v>
@@ -5018,12 +4700,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>429</v>
+      <c r="A24" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-23</v>
+        <v>SJ-F-23</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>68</v>
@@ -5033,12 +4715,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>430</v>
+      <c r="A25" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-24</v>
+        <v>SJ-F-24</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>71</v>
@@ -5048,12 +4730,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>431</v>
+      <c r="A26" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-25</v>
+        <v>SJ-F-25</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>74</v>
@@ -5063,12 +4745,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>432</v>
+      <c r="A27" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-26</v>
+        <v>SJ-F-26</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>77</v>
@@ -5078,12 +4760,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>433</v>
+      <c r="A28" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-27</v>
+        <v>SJ-F-27</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>80</v>
@@ -5093,12 +4775,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>434</v>
+      <c r="A29" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-28</v>
+        <v>SJ-F-28</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>83</v>
@@ -5108,12 +4790,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>435</v>
+      <c r="A30" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-29</v>
+        <v>SJ-F-29</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>86</v>
@@ -5123,12 +4805,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>436</v>
+      <c r="A31" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-30</v>
+        <v>SJ-F-30</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>89</v>
@@ -5138,12 +4820,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>437</v>
+      <c r="A32" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-31</v>
+        <v>SJ-F-31</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>92</v>
@@ -5153,12 +4835,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>438</v>
+      <c r="A33" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-32</v>
+        <v>SJ-F-32</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>95</v>
@@ -5168,12 +4850,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>439</v>
+      <c r="A34" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-33</v>
+        <v>SJ-F-33</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>98</v>
@@ -5183,12 +4865,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>440</v>
+      <c r="A35" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-34</v>
+        <v>SJ-F-34</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>101</v>
@@ -5198,12 +4880,12 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>441</v>
+      <c r="A36" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-35</v>
+        <v>SJ-F-35</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>104</v>
@@ -5213,12 +4895,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>442</v>
+      <c r="A37" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-36</v>
+        <v>SJ-F-36</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>107</v>
@@ -5228,12 +4910,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>443</v>
+      <c r="A38" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-37</v>
+        <v>SJ-F-37</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>110</v>
@@ -5243,12 +4925,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>444</v>
+      <c r="A39" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-38</v>
+        <v>SJ-F-38</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>113</v>
@@ -5258,12 +4940,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>445</v>
+      <c r="A40" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-39</v>
+        <v>SJ-F-39</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>116</v>
@@ -5273,12 +4955,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>446</v>
+      <c r="A41" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-40</v>
+        <v>SJ-F-40</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>119</v>
@@ -5288,12 +4970,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>447</v>
+      <c r="A42" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-41</v>
+        <v>SJ-F-41</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>122</v>
@@ -5303,12 +4985,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>448</v>
+      <c r="A43" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-42</v>
+        <v>SJ-F-42</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>122</v>
@@ -5318,12 +5000,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>449</v>
+      <c r="A44" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-43</v>
+        <v>SJ-F-43</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>122</v>
@@ -5333,12 +5015,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>450</v>
+      <c r="A45" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-44</v>
+        <v>SJ-F-44</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>129</v>
@@ -5348,12 +5030,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>451</v>
+      <c r="A46" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-45</v>
+        <v>SJ-F-45</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>132</v>
@@ -5363,12 +5045,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>452</v>
+      <c r="A47" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-46</v>
+        <v>SJ-F-46</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>132</v>
@@ -5378,12 +5060,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>453</v>
+      <c r="A48" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-47</v>
+        <v>SJ-F-47</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>132</v>
@@ -5393,12 +5075,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>454</v>
+      <c r="A49" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-48</v>
+        <v>SJ-F-48</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>139</v>
@@ -5408,12 +5090,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>455</v>
+      <c r="A50" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-49</v>
+        <v>SJ-F-49</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>142</v>
@@ -5423,12 +5105,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>456</v>
+      <c r="A51" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-50</v>
+        <v>SJ-F-50</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>145</v>
@@ -5438,12 +5120,12 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>457</v>
+      <c r="A52" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-51</v>
+        <v>SJ-F-51</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>148</v>
@@ -5453,12 +5135,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>458</v>
+      <c r="A53" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-52</v>
+        <v>SJ-F-52</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>151</v>
@@ -5468,12 +5150,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>459</v>
+      <c r="A54" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="B54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-53</v>
+        <v>SJ-F-53</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>154</v>
@@ -5483,12 +5165,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>460</v>
+      <c r="A55" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-54</v>
+        <v>SJ-F-54</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>157</v>
@@ -5498,12 +5180,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>461</v>
+      <c r="A56" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="B56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-55</v>
+        <v>SJ-F-55</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>160</v>
@@ -5513,12 +5195,12 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>462</v>
+      <c r="A57" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-56</v>
+        <v>SJ-F-56</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>163</v>
@@ -5528,12 +5210,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>463</v>
+      <c r="A58" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-57</v>
+        <v>SJ-F-57</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>166</v>
@@ -5543,12 +5225,12 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>464</v>
+      <c r="A59" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-58</v>
+        <v>SJ-F-58</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>169</v>
@@ -5558,12 +5240,12 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>465</v>
+      <c r="A60" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-59</v>
+        <v>SJ-F-59</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>172</v>
@@ -5573,12 +5255,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>466</v>
+      <c r="A61" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-60</v>
+        <v>SJ-F-60</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>175</v>
@@ -5588,12 +5270,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>467</v>
+      <c r="A62" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="B62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-61</v>
+        <v>SJ-F-61</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>178</v>
@@ -5603,24 +5285,24 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>468</v>
+      <c r="A63" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-62</v>
+        <v>SJ-F-62</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>469</v>
+      <c r="A64" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="B64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-63</v>
+        <v>SJ-F-63</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>183</v>
@@ -5630,12 +5312,12 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>470</v>
+      <c r="A65" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-64</v>
+        <v>SJ-F-64</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>186</v>
@@ -5645,48 +5327,48 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>471</v>
+      <c r="A66" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="B66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>S-J-65</v>
+        <v>SJ-F-65</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>472</v>
+      <c r="A67" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B67" s="5" t="str">
-        <f t="shared" ref="B67:B107" ca="1" si="1">IF(ISREF(INDIRECT(A67&amp;"!A1")),HYPERLINK("#"&amp;A67&amp;"!A1",LEFT(A67)&amp;"-"&amp;MID(A67,2,1)&amp;"-"&amp;RIGHT(A67,2)),HYPERLINK(,LEFT(A67)&amp;"-"&amp;MID(A67,2,1)&amp;"-"&amp;RIGHT(A67,2)))</f>
-        <v>S-J-66</v>
+        <f t="shared" ref="B67:B107" ca="1" si="1">IF(ISREF(INDIRECT(SUBSTITUTE(A67,"-","")&amp;"!A1")),HYPERLINK("#"&amp;SUBSTITUTE(A67,"-","")&amp;"!A1",A67),HYPERLINK(,A67))</f>
+        <v>SJ-F-66</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>473</v>
+      <c r="A68" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="B68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-67</v>
+        <v>SJ-F-67</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>474</v>
+      <c r="A69" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-68</v>
+        <v>SJ-F-68</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>195</v>
@@ -5696,12 +5378,12 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>475</v>
+      <c r="A70" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-69</v>
+        <v>SJ-F-69</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>21</v>
@@ -5711,12 +5393,12 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>476</v>
+      <c r="A71" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-70</v>
+        <v>SJ-F-70</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>21</v>
@@ -5726,12 +5408,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>477</v>
+      <c r="A72" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-71</v>
+        <v>SJ-F-71</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>33</v>
@@ -5741,12 +5423,12 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>478</v>
+      <c r="A73" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-72</v>
+        <v>SJ-F-72</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>42</v>
@@ -5756,12 +5438,12 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>479</v>
+      <c r="A74" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="B74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-73</v>
+        <v>SJ-F-73</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>83</v>
@@ -5771,12 +5453,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>480</v>
+      <c r="A75" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-74</v>
+        <v>SJ-F-74</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>98</v>
@@ -5786,12 +5468,12 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>481</v>
+      <c r="A76" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-75</v>
+        <v>SJ-F-75</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>101</v>
@@ -5801,12 +5483,12 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>482</v>
+      <c r="A77" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-76</v>
+        <v>SJ-F-76</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>104</v>
@@ -5816,12 +5498,12 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>483</v>
+      <c r="A78" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="B78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-77</v>
+        <v>SJ-F-77</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>113</v>
@@ -5831,12 +5513,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>484</v>
+      <c r="A79" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="B79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-78</v>
+        <v>SJ-F-78</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>142</v>
@@ -5846,12 +5528,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>485</v>
+      <c r="A80" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="B80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-79</v>
+        <v>SJ-F-79</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>151</v>
@@ -5861,12 +5543,12 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>486</v>
+      <c r="A81" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-80</v>
+        <v>SJ-F-80</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>154</v>
@@ -5876,12 +5558,12 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>487</v>
+      <c r="A82" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-81</v>
+        <v>SJ-F-81</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>157</v>
@@ -5891,12 +5573,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>488</v>
+      <c r="A83" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B83" s="5" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A83&amp;"!A1")),HYPERLINK("#"&amp;A83&amp;"!A1",LEFT(A83)&amp;"-"&amp;MID(A83,2,1)&amp;"-"&amp;RIGHT(A83,3)),HYPERLINK(,LEFT(A83)&amp;"-"&amp;MID(A83,2,1)&amp;"-"&amp;RIGHT(A83,3)))</f>
-        <v>S-J-82a</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-82a</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>222</v>
@@ -5906,12 +5588,12 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>489</v>
+      <c r="A84" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="B84" s="5" t="str">
-        <f t="shared" ref="B84:B90" ca="1" si="2">IF(ISREF(INDIRECT(A84&amp;"!A1")),HYPERLINK("#"&amp;A84&amp;"!A1",LEFT(A84)&amp;"-"&amp;MID(A84,2,1)&amp;"-"&amp;RIGHT(A84,3)),HYPERLINK(,LEFT(A84)&amp;"-"&amp;MID(A84,2,1)&amp;"-"&amp;RIGHT(A84,3)))</f>
-        <v>S-J-82b</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-82b</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>225</v>
@@ -5921,12 +5603,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>490</v>
+      <c r="A85" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B85" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>S-J-82c</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-82c</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>142</v>
@@ -5936,12 +5618,12 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>491</v>
+      <c r="A86" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="B86" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>S-J-82d</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-82d</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>228</v>
@@ -5951,12 +5633,12 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>492</v>
+      <c r="A87" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B87" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>S-J-83a</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-83a</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>157</v>
@@ -5966,12 +5648,12 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>493</v>
+      <c r="A88" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B88" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>S-J-83b</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-83b</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>225</v>
@@ -5981,12 +5663,12 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>494</v>
+      <c r="A89" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B89" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>S-J-83c</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-83c</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>142</v>
@@ -5996,12 +5678,12 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>495</v>
+      <c r="A90" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B90" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>S-J-83d</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>SJ-F-83d</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>228</v>
@@ -6011,12 +5693,12 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>496</v>
+      <c r="A91" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-84</v>
+        <v>SJ-F-84</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>145</v>
@@ -6026,12 +5708,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>497</v>
+      <c r="A92" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-85</v>
+        <v>SJ-F-85</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>145</v>
@@ -6041,12 +5723,12 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>498</v>
+      <c r="A93" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-86</v>
+        <v>SJ-F-86</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>239</v>
@@ -6056,12 +5738,12 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>499</v>
+      <c r="A94" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-87</v>
+        <v>SJ-F-87</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>151</v>
@@ -6071,12 +5753,12 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>500</v>
+      <c r="A95" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="B95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-88</v>
+        <v>SJ-F-88</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>154</v>
@@ -6086,12 +5768,12 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>501</v>
+      <c r="A96" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-89</v>
+        <v>SJ-F-89</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>157</v>
@@ -6101,12 +5783,12 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>502</v>
+      <c r="A97" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-90</v>
+        <v>SJ-F-90</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>157</v>
@@ -6116,12 +5798,12 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>503</v>
+      <c r="A98" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="B98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-91</v>
+        <v>SJ-F-91</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>163</v>
@@ -6131,12 +5813,12 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>504</v>
+      <c r="A99" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="B99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-92</v>
+        <v>SJ-F-92</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>252</v>
@@ -6146,12 +5828,12 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>505</v>
+      <c r="A100" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="B100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-93</v>
+        <v>SJ-F-93</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>172</v>
@@ -6161,12 +5843,12 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>506</v>
+      <c r="A101" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="B101" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-94</v>
+        <v>SJ-F-94</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>172</v>
@@ -6176,12 +5858,12 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>507</v>
+      <c r="A102" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="B102" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-95</v>
+        <v>SJ-F-95</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>169</v>
@@ -6191,12 +5873,12 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>508</v>
+      <c r="A103" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="B103" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-96</v>
+        <v>SJ-F-96</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>195</v>
@@ -6206,12 +5888,12 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>509</v>
+      <c r="A104" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="B104" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-97</v>
+        <v>SJ-F-97</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>263</v>
@@ -6221,12 +5903,12 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>510</v>
+      <c r="A105" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B105" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-98</v>
+        <v>SJ-F-98</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>193</v>
@@ -6236,12 +5918,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>511</v>
+      <c r="A106" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="B106" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-99</v>
+        <v>SJ-F-99</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>268</v>
@@ -6251,25 +5933,35 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>512</v>
+      <c r="A107" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="B107" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S-J-00</v>
+        <v>SJ-F-100</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H107" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
   <conditionalFormatting sqref="B2:B108">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISREF(INDIRECT(A2&amp;"!A1"))</formula>
+      <formula>ISREF(INDIRECT(SUBSTITUTE(A2, "-","")&amp;"!A1"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
